--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3146.165982339784</v>
+        <v>3439.720135223749</v>
       </c>
       <c r="AB2" t="n">
-        <v>4304.723096084735</v>
+        <v>4706.376838755809</v>
       </c>
       <c r="AC2" t="n">
-        <v>3893.886365511055</v>
+        <v>4257.206838706156</v>
       </c>
       <c r="AD2" t="n">
-        <v>3146165.982339784</v>
+        <v>3439720.13522375</v>
       </c>
       <c r="AE2" t="n">
-        <v>4304723.096084734</v>
+        <v>4706376.83875581</v>
       </c>
       <c r="AF2" t="n">
         <v>2.655249378357795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.1125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3893886.365511056</v>
+        <v>4257206.838706156</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1119.486593051496</v>
+        <v>1276.001448150585</v>
       </c>
       <c r="AB3" t="n">
-        <v>1531.730944875894</v>
+        <v>1745.881474570547</v>
       </c>
       <c r="AC3" t="n">
-        <v>1385.544693294821</v>
+        <v>1579.256996997573</v>
       </c>
       <c r="AD3" t="n">
-        <v>1119486.593051496</v>
+        <v>1276001.448150584</v>
       </c>
       <c r="AE3" t="n">
-        <v>1531730.944875894</v>
+        <v>1745881.474570547</v>
       </c>
       <c r="AF3" t="n">
         <v>5.004254219248589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.3625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1385544.693294821</v>
+        <v>1579256.996997572</v>
       </c>
     </row>
     <row r="4">
@@ -3189,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>857.779407960384</v>
+        <v>994.7845403264801</v>
       </c>
       <c r="AB4" t="n">
-        <v>1173.651628528084</v>
+        <v>1361.108094871235</v>
       </c>
       <c r="AC4" t="n">
-        <v>1061.639964331769</v>
+        <v>1231.205848623933</v>
       </c>
       <c r="AD4" t="n">
-        <v>857779.407960384</v>
+        <v>994784.5403264801</v>
       </c>
       <c r="AE4" t="n">
-        <v>1173651.628528084</v>
+        <v>1361108.094871235</v>
       </c>
       <c r="AF4" t="n">
         <v>5.871382048583195e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.73333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1061639.964331769</v>
+        <v>1231205.848623933</v>
       </c>
     </row>
     <row r="5">
@@ -3295,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>743.2028356609578</v>
+        <v>870.4194467567055</v>
       </c>
       <c r="AB5" t="n">
-        <v>1016.882907546386</v>
+        <v>1190.946287248366</v>
       </c>
       <c r="AC5" t="n">
-        <v>919.8330300542826</v>
+        <v>1077.284045096994</v>
       </c>
       <c r="AD5" t="n">
-        <v>743202.8356609578</v>
+        <v>870419.4467567055</v>
       </c>
       <c r="AE5" t="n">
-        <v>1016882.907546386</v>
+        <v>1190946.287248366</v>
       </c>
       <c r="AF5" t="n">
         <v>6.338094203468329e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.7625</v>
       </c>
       <c r="AH5" t="n">
-        <v>919833.0300542826</v>
+        <v>1077284.045096994</v>
       </c>
     </row>
     <row r="6">
@@ -3401,28 +3401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>685.3307935753309</v>
+        <v>812.5132392522978</v>
       </c>
       <c r="AB6" t="n">
-        <v>937.6998264305256</v>
+        <v>1111.716459499258</v>
       </c>
       <c r="AC6" t="n">
-        <v>848.2070710659676</v>
+        <v>1005.615800908499</v>
       </c>
       <c r="AD6" t="n">
-        <v>685330.7935753309</v>
+        <v>812513.2392522978</v>
       </c>
       <c r="AE6" t="n">
-        <v>937699.8264305256</v>
+        <v>1111716.459499258</v>
       </c>
       <c r="AF6" t="n">
         <v>6.568248462253492e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.89583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>848207.0710659677</v>
+        <v>1005615.800908499</v>
       </c>
     </row>
     <row r="7">
@@ -3507,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>686.0313950220188</v>
+        <v>813.2138406989856</v>
       </c>
       <c r="AB7" t="n">
-        <v>938.6584202382383</v>
+        <v>1112.675053306971</v>
       </c>
       <c r="AC7" t="n">
-        <v>849.0741780260671</v>
+        <v>1006.482907868598</v>
       </c>
       <c r="AD7" t="n">
-        <v>686031.3950220188</v>
+        <v>813213.8406989856</v>
       </c>
       <c r="AE7" t="n">
-        <v>938658.4202382383</v>
+        <v>1112675.053306971</v>
       </c>
       <c r="AF7" t="n">
         <v>6.570131884993141e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.8875</v>
       </c>
       <c r="AH7" t="n">
-        <v>849074.1780260671</v>
+        <v>1006482.907868598</v>
       </c>
     </row>
     <row r="8">
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>686.4590732345559</v>
+        <v>813.6415189115228</v>
       </c>
       <c r="AB8" t="n">
-        <v>939.2435884364629</v>
+        <v>1113.260221505195</v>
       </c>
       <c r="AC8" t="n">
-        <v>849.6034985927417</v>
+        <v>1007.012228435273</v>
       </c>
       <c r="AD8" t="n">
-        <v>686459.0732345559</v>
+        <v>813641.5189115228</v>
       </c>
       <c r="AE8" t="n">
-        <v>939243.5884364629</v>
+        <v>1113260.221505195</v>
       </c>
       <c r="AF8" t="n">
         <v>6.581432421431038e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.85</v>
       </c>
       <c r="AH8" t="n">
-        <v>849603.4985927418</v>
+        <v>1007012.228435273</v>
       </c>
     </row>
   </sheetData>
@@ -3910,28 +3910,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1949.476826935746</v>
+        <v>2172.062137580528</v>
       </c>
       <c r="AB2" t="n">
-        <v>2667.360199461173</v>
+        <v>2971.911241256225</v>
       </c>
       <c r="AC2" t="n">
-        <v>2412.791085688151</v>
+        <v>2688.276203494355</v>
       </c>
       <c r="AD2" t="n">
-        <v>1949476.826935746</v>
+        <v>2172062.137580528</v>
       </c>
       <c r="AE2" t="n">
-        <v>2667360.199461173</v>
+        <v>2971911.241256225</v>
       </c>
       <c r="AF2" t="n">
         <v>3.719352077554483e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.17499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>2412791.085688151</v>
+        <v>2688276.203494355</v>
       </c>
     </row>
     <row r="3">
@@ -4016,28 +4016,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>887.124830930329</v>
+        <v>1032.29890276317</v>
       </c>
       <c r="AB3" t="n">
-        <v>1213.803330864253</v>
+        <v>1412.436900573979</v>
       </c>
       <c r="AC3" t="n">
-        <v>1097.959644550243</v>
+        <v>1277.635905150839</v>
       </c>
       <c r="AD3" t="n">
-        <v>887124.830930329</v>
+        <v>1032298.90276317</v>
       </c>
       <c r="AE3" t="n">
-        <v>1213803.330864253</v>
+        <v>1412436.900573979</v>
       </c>
       <c r="AF3" t="n">
         <v>6.021690364923648e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1097959.644550243</v>
+        <v>1277635.905150839</v>
       </c>
     </row>
     <row r="4">
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>706.3173969960534</v>
+        <v>822.4508324084271</v>
       </c>
       <c r="AB4" t="n">
-        <v>966.4146230943569</v>
+        <v>1125.313512871142</v>
       </c>
       <c r="AC4" t="n">
-        <v>874.1813678376732</v>
+        <v>1017.915170590155</v>
       </c>
       <c r="AD4" t="n">
-        <v>706317.3969960534</v>
+        <v>822450.8324084271</v>
       </c>
       <c r="AE4" t="n">
-        <v>966414.6230943569</v>
+        <v>1125313.512871142</v>
       </c>
       <c r="AF4" t="n">
         <v>6.859616204204262e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.03333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>874181.3678376732</v>
+        <v>1017915.170590155</v>
       </c>
     </row>
     <row r="5">
@@ -4228,28 +4228,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>658.9177059063791</v>
+        <v>775.0169758999721</v>
       </c>
       <c r="AB5" t="n">
-        <v>901.560274618678</v>
+        <v>1060.412417762216</v>
       </c>
       <c r="AC5" t="n">
-        <v>815.5166273568632</v>
+        <v>959.2081449091648</v>
       </c>
       <c r="AD5" t="n">
-        <v>658917.705906379</v>
+        <v>775016.975899972</v>
       </c>
       <c r="AE5" t="n">
-        <v>901560.274618678</v>
+        <v>1060412.417762216</v>
       </c>
       <c r="AF5" t="n">
         <v>7.083832464198682e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.24166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>815516.6273568632</v>
+        <v>959208.1449091649</v>
       </c>
     </row>
     <row r="6">
@@ -4334,28 +4334,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>660.7629352018442</v>
+        <v>776.8622051954372</v>
       </c>
       <c r="AB6" t="n">
-        <v>904.0849987465045</v>
+        <v>1062.937141890042</v>
       </c>
       <c r="AC6" t="n">
-        <v>817.8003953574026</v>
+        <v>961.4919129097043</v>
       </c>
       <c r="AD6" t="n">
-        <v>660762.9352018442</v>
+        <v>776862.2051954372</v>
       </c>
       <c r="AE6" t="n">
-        <v>904084.9987465045</v>
+        <v>1062937.141890042</v>
       </c>
       <c r="AF6" t="n">
         <v>7.084244626441319e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.24166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>817800.3953574026</v>
+        <v>961491.9129097043</v>
       </c>
     </row>
     <row r="7">
@@ -4440,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>661.5161495576373</v>
+        <v>777.6154195512303</v>
       </c>
       <c r="AB7" t="n">
-        <v>905.1155798575729</v>
+        <v>1063.96772300111</v>
       </c>
       <c r="AC7" t="n">
-        <v>818.7326192536602</v>
+        <v>962.4241368059621</v>
       </c>
       <c r="AD7" t="n">
-        <v>661516.1495576373</v>
+        <v>777615.4195512303</v>
       </c>
       <c r="AE7" t="n">
-        <v>905115.5798575729</v>
+        <v>1063967.72300111</v>
       </c>
       <c r="AF7" t="n">
         <v>7.095373006992512e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.20416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>818732.6192536602</v>
+        <v>962424.1368059621</v>
       </c>
     </row>
   </sheetData>
@@ -4737,28 +4737,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>679.8031657397537</v>
+        <v>820.1012264168708</v>
       </c>
       <c r="AB2" t="n">
-        <v>930.13668216416</v>
+        <v>1122.098678296195</v>
       </c>
       <c r="AC2" t="n">
-        <v>841.3657426734441</v>
+        <v>1015.007155314991</v>
       </c>
       <c r="AD2" t="n">
-        <v>679803.1657397537</v>
+        <v>820101.2264168707</v>
       </c>
       <c r="AE2" t="n">
-        <v>930136.68216416</v>
+        <v>1122098.678296194</v>
       </c>
       <c r="AF2" t="n">
         <v>8.395194331418594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.55416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>841365.7426734441</v>
+        <v>1015007.155314991</v>
       </c>
     </row>
     <row r="3">
@@ -4843,28 +4843,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>607.6594725944479</v>
+        <v>738.6020515318385</v>
       </c>
       <c r="AB3" t="n">
-        <v>831.4264984476384</v>
+        <v>1010.587911728654</v>
       </c>
       <c r="AC3" t="n">
-        <v>752.0763203502146</v>
+        <v>914.138819802313</v>
       </c>
       <c r="AD3" t="n">
-        <v>607659.4725944479</v>
+        <v>738602.0515318385</v>
       </c>
       <c r="AE3" t="n">
-        <v>831426.4984476385</v>
+        <v>1010587.911728654</v>
       </c>
       <c r="AF3" t="n">
         <v>8.944595454320311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>752076.3203502146</v>
+        <v>914138.819802313</v>
       </c>
     </row>
     <row r="4">
@@ -4949,28 +4949,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>610.4371535300913</v>
+        <v>741.3797324674817</v>
       </c>
       <c r="AB4" t="n">
-        <v>835.2270440464199</v>
+        <v>1014.388457327436</v>
       </c>
       <c r="AC4" t="n">
-        <v>755.5141472111477</v>
+        <v>917.5766466632459</v>
       </c>
       <c r="AD4" t="n">
-        <v>610437.1535300913</v>
+        <v>741379.7324674818</v>
       </c>
       <c r="AE4" t="n">
-        <v>835227.0440464199</v>
+        <v>1014388.457327436</v>
       </c>
       <c r="AF4" t="n">
         <v>8.944595454320311e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="AH4" t="n">
-        <v>755514.1472111477</v>
+        <v>917576.646663246</v>
       </c>
     </row>
   </sheetData>
@@ -5246,28 +5246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>997.336890457444</v>
+        <v>1158.540582641585</v>
       </c>
       <c r="AB2" t="n">
-        <v>1364.600332922161</v>
+        <v>1585.166336373476</v>
       </c>
       <c r="AC2" t="n">
-        <v>1234.364792376665</v>
+        <v>1433.880286024916</v>
       </c>
       <c r="AD2" t="n">
-        <v>997336.890457444</v>
+        <v>1158540.582641585</v>
       </c>
       <c r="AE2" t="n">
-        <v>1364600.332922161</v>
+        <v>1585166.336373476</v>
       </c>
       <c r="AF2" t="n">
         <v>6.190632523176916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.53333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1234364.792376665</v>
+        <v>1433880.286024916</v>
       </c>
     </row>
     <row r="3">
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>619.3071127992464</v>
+        <v>742.4790392429868</v>
       </c>
       <c r="AB3" t="n">
-        <v>847.3633136334635</v>
+        <v>1015.892577355674</v>
       </c>
       <c r="AC3" t="n">
-        <v>766.4921482621651</v>
+        <v>918.9372155870349</v>
       </c>
       <c r="AD3" t="n">
-        <v>619307.1127992464</v>
+        <v>742479.0392429868</v>
       </c>
       <c r="AE3" t="n">
-        <v>847363.3136334635</v>
+        <v>1015892.577355674</v>
       </c>
       <c r="AF3" t="n">
         <v>8.153540308571818e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.45833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>766492.148262165</v>
+        <v>918937.2155870348</v>
       </c>
     </row>
     <row r="4">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>618.8168336969893</v>
+        <v>741.9887601407296</v>
       </c>
       <c r="AB4" t="n">
-        <v>846.6924921361677</v>
+        <v>1015.221755858378</v>
       </c>
       <c r="AC4" t="n">
-        <v>765.8853490270673</v>
+        <v>918.3304163519371</v>
       </c>
       <c r="AD4" t="n">
-        <v>618816.8336969893</v>
+        <v>741988.7601407296</v>
       </c>
       <c r="AE4" t="n">
-        <v>846692.4921361677</v>
+        <v>1015221.755858378</v>
       </c>
       <c r="AF4" t="n">
         <v>8.177952105902872e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.38333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>765885.3490270673</v>
+        <v>918330.4163519371</v>
       </c>
     </row>
   </sheetData>
@@ -5755,28 +5755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.9497913376855</v>
+        <v>758.6842737865624</v>
       </c>
       <c r="AB2" t="n">
-        <v>848.2426547627319</v>
+        <v>1038.065294182685</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.2875663082192</v>
+        <v>938.9937994396798</v>
       </c>
       <c r="AD2" t="n">
-        <v>619949.7913376855</v>
+        <v>758684.2737865624</v>
       </c>
       <c r="AE2" t="n">
-        <v>848242.654762732</v>
+        <v>1038065.294182685</v>
       </c>
       <c r="AF2" t="n">
         <v>9.528573148367145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>767287.5663082192</v>
+        <v>938993.7994396798</v>
       </c>
     </row>
     <row r="3">
@@ -5861,28 +5861,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>621.2909515191683</v>
+        <v>760.0254339680451</v>
       </c>
       <c r="AB3" t="n">
-        <v>850.077689290848</v>
+        <v>1039.900328710801</v>
       </c>
       <c r="AC3" t="n">
-        <v>768.947467716459</v>
+        <v>940.6537008479196</v>
       </c>
       <c r="AD3" t="n">
-        <v>621290.9515191683</v>
+        <v>760025.4339680452</v>
       </c>
       <c r="AE3" t="n">
-        <v>850077.689290848</v>
+        <v>1039900.328710801</v>
       </c>
       <c r="AF3" t="n">
         <v>9.552294096665411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.74166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>768947.467716459</v>
+        <v>940653.7008479196</v>
       </c>
     </row>
     <row r="4">
@@ -5967,28 +5967,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>624.6907385437264</v>
+        <v>763.4252209926034</v>
       </c>
       <c r="AB4" t="n">
-        <v>854.7294278858664</v>
+        <v>1044.552067305819</v>
       </c>
       <c r="AC4" t="n">
-        <v>773.1552509087248</v>
+        <v>944.8614840401855</v>
       </c>
       <c r="AD4" t="n">
-        <v>624690.7385437264</v>
+        <v>763425.2209926033</v>
       </c>
       <c r="AE4" t="n">
-        <v>854729.4278858664</v>
+        <v>1044552.067305819</v>
       </c>
       <c r="AF4" t="n">
         <v>9.551635181434904e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.74166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>773155.2509087248</v>
+        <v>944861.4840401855</v>
       </c>
     </row>
   </sheetData>
@@ -6264,28 +6264,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2176.477667272285</v>
+        <v>2428.807317185441</v>
       </c>
       <c r="AB2" t="n">
-        <v>2977.952763779908</v>
+        <v>3323.201322789777</v>
       </c>
       <c r="AC2" t="n">
-        <v>2693.741131587708</v>
+        <v>3006.039652684944</v>
       </c>
       <c r="AD2" t="n">
-        <v>2176477.667272285</v>
+        <v>2428807.317185441</v>
       </c>
       <c r="AE2" t="n">
-        <v>2977952.763779908</v>
+        <v>3323201.322789777</v>
       </c>
       <c r="AF2" t="n">
         <v>3.425986036230771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.91666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2693741.131587708</v>
+        <v>3006039.652684945</v>
       </c>
     </row>
     <row r="3">
@@ -6370,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>945.7706487368478</v>
+        <v>1091.303093992764</v>
       </c>
       <c r="AB3" t="n">
-        <v>1294.045126058014</v>
+        <v>1493.169038095511</v>
       </c>
       <c r="AC3" t="n">
-        <v>1170.543275430777</v>
+        <v>1350.663080775582</v>
       </c>
       <c r="AD3" t="n">
-        <v>945770.6487368478</v>
+        <v>1091303.093992764</v>
       </c>
       <c r="AE3" t="n">
-        <v>1294045.126058014</v>
+        <v>1493169.038095511</v>
       </c>
       <c r="AF3" t="n">
         <v>5.735047533530707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.22083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1170543.275430777</v>
+        <v>1350663.080775582</v>
       </c>
     </row>
     <row r="4">
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>739.9856581616945</v>
+        <v>866.1002460199571</v>
       </c>
       <c r="AB4" t="n">
-        <v>1012.48102336004</v>
+        <v>1185.036566250659</v>
       </c>
       <c r="AC4" t="n">
-        <v>915.8512555165979</v>
+        <v>1071.938339576962</v>
       </c>
       <c r="AD4" t="n">
-        <v>739985.6581616944</v>
+        <v>866100.2460199571</v>
       </c>
       <c r="AE4" t="n">
-        <v>1012481.02336004</v>
+        <v>1185036.566250659</v>
       </c>
       <c r="AF4" t="n">
         <v>6.595767199829586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.40833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>915851.2555165979</v>
+        <v>1071938.339576962</v>
       </c>
     </row>
     <row r="5">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>667.1160957532546</v>
+        <v>783.5559203314715</v>
       </c>
       <c r="AB5" t="n">
-        <v>912.7776732946066</v>
+        <v>1072.095778245035</v>
       </c>
       <c r="AC5" t="n">
-        <v>825.6634532468792</v>
+        <v>969.776461865203</v>
       </c>
       <c r="AD5" t="n">
-        <v>667116.0957532546</v>
+        <v>783555.9203314715</v>
       </c>
       <c r="AE5" t="n">
-        <v>912777.6732946066</v>
+        <v>1072095.778245035</v>
       </c>
       <c r="AF5" t="n">
         <v>6.944479326316094e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.13333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>825663.4532468792</v>
+        <v>969776.461865203</v>
       </c>
     </row>
     <row r="6">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>669.0322442675131</v>
+        <v>785.4720688457298</v>
       </c>
       <c r="AB6" t="n">
-        <v>915.3994322263212</v>
+        <v>1074.717537176749</v>
       </c>
       <c r="AC6" t="n">
-        <v>828.0349951858126</v>
+        <v>972.1480038041366</v>
       </c>
       <c r="AD6" t="n">
-        <v>669032.244267513</v>
+        <v>785472.0688457298</v>
       </c>
       <c r="AE6" t="n">
-        <v>915399.4322263212</v>
+        <v>1074717.537176749</v>
       </c>
       <c r="AF6" t="n">
         <v>6.942870504509928e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.1375</v>
       </c>
       <c r="AH6" t="n">
-        <v>828034.9951858126</v>
+        <v>972148.0038041365</v>
       </c>
     </row>
     <row r="7">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>669.5454406713056</v>
+        <v>785.9852652495224</v>
       </c>
       <c r="AB7" t="n">
-        <v>916.1016101866179</v>
+        <v>1075.419715137046</v>
       </c>
       <c r="AC7" t="n">
-        <v>828.6701582670913</v>
+        <v>972.7831668854153</v>
       </c>
       <c r="AD7" t="n">
-        <v>669545.4406713056</v>
+        <v>785985.2652495224</v>
       </c>
       <c r="AE7" t="n">
-        <v>916101.6101866179</v>
+        <v>1075419.715137046</v>
       </c>
       <c r="AF7" t="n">
         <v>6.954534462604633e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>828670.1582670914</v>
+        <v>972783.1668854153</v>
       </c>
     </row>
   </sheetData>
@@ -7091,28 +7091,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>639.3485234081062</v>
+        <v>786.2451665728963</v>
       </c>
       <c r="AB2" t="n">
-        <v>874.7848557931402</v>
+        <v>1075.775323593723</v>
       </c>
       <c r="AC2" t="n">
-        <v>791.2966169244985</v>
+        <v>973.1048365700866</v>
       </c>
       <c r="AD2" t="n">
-        <v>639348.5234081062</v>
+        <v>786245.1665728963</v>
       </c>
       <c r="AE2" t="n">
-        <v>874784.8557931402</v>
+        <v>1075775.323593723</v>
       </c>
       <c r="AF2" t="n">
         <v>9.85716428997337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.475</v>
       </c>
       <c r="AH2" t="n">
-        <v>791296.6169244985</v>
+        <v>973104.8365700867</v>
       </c>
     </row>
     <row r="3">
@@ -7197,28 +7197,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>642.4067845784913</v>
+        <v>789.3034277432812</v>
       </c>
       <c r="AB3" t="n">
-        <v>878.9693036474215</v>
+        <v>1079.959771448004</v>
       </c>
       <c r="AC3" t="n">
-        <v>795.0817069484766</v>
+        <v>976.8899265940648</v>
       </c>
       <c r="AD3" t="n">
-        <v>642406.7845784912</v>
+        <v>789303.4277432812</v>
       </c>
       <c r="AE3" t="n">
-        <v>878969.3036474215</v>
+        <v>1079959.771448004</v>
       </c>
       <c r="AF3" t="n">
         <v>9.867978908489286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.44166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>795081.7069484766</v>
+        <v>976889.9265940648</v>
       </c>
     </row>
   </sheetData>
@@ -7494,28 +7494,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1400.704683177924</v>
+        <v>1592.3720736233</v>
       </c>
       <c r="AB2" t="n">
-        <v>1916.505942253405</v>
+        <v>2178.753721629256</v>
       </c>
       <c r="AC2" t="n">
-        <v>1733.597304957723</v>
+        <v>1970.816524337014</v>
       </c>
       <c r="AD2" t="n">
-        <v>1400704.683177924</v>
+        <v>1592372.0736233</v>
       </c>
       <c r="AE2" t="n">
-        <v>1916505.942253405</v>
+        <v>2178753.721629256</v>
       </c>
       <c r="AF2" t="n">
         <v>4.760907612342602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.22083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1733597.304957723</v>
+        <v>1970816.524337013</v>
       </c>
     </row>
     <row r="3">
@@ -7600,28 +7600,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>731.1915026631082</v>
+        <v>865.3955502146301</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000.448471836115</v>
+        <v>1184.072370360826</v>
       </c>
       <c r="AC3" t="n">
-        <v>904.9670738223247</v>
+        <v>1071.066165189597</v>
       </c>
       <c r="AD3" t="n">
-        <v>731191.5026631082</v>
+        <v>865395.5502146301</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000448.471836115</v>
+        <v>1184072.370360826</v>
       </c>
       <c r="AF3" t="n">
         <v>7.026854038776207e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.575</v>
       </c>
       <c r="AH3" t="n">
-        <v>904967.0738223246</v>
+        <v>1071066.165189597</v>
       </c>
     </row>
     <row r="4">
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>632.7085988265867</v>
+        <v>757.3242025945157</v>
       </c>
       <c r="AB4" t="n">
-        <v>865.699818047907</v>
+        <v>1036.204384775621</v>
       </c>
       <c r="AC4" t="n">
-        <v>783.0786424307396</v>
+        <v>937.3104926146225</v>
       </c>
       <c r="AD4" t="n">
-        <v>632708.5988265867</v>
+        <v>757324.2025945156</v>
       </c>
       <c r="AE4" t="n">
-        <v>865699.818047907</v>
+        <v>1036204.384775621</v>
       </c>
       <c r="AF4" t="n">
         <v>7.57093215619915e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.6625</v>
       </c>
       <c r="AH4" t="n">
-        <v>783078.6424307396</v>
+        <v>937310.4926146225</v>
       </c>
     </row>
     <row r="5">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>634.7136394067874</v>
+        <v>759.3292431747161</v>
       </c>
       <c r="AB5" t="n">
-        <v>868.4432030258849</v>
+        <v>1038.947769753598</v>
       </c>
       <c r="AC5" t="n">
-        <v>785.5602025967844</v>
+        <v>939.7920527806673</v>
       </c>
       <c r="AD5" t="n">
-        <v>634713.6394067873</v>
+        <v>759329.2431747161</v>
       </c>
       <c r="AE5" t="n">
-        <v>868443.2030258849</v>
+        <v>1038947.769753598</v>
       </c>
       <c r="AF5" t="n">
         <v>7.571828495766568e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.6625</v>
       </c>
       <c r="AH5" t="n">
-        <v>785560.2025967843</v>
+        <v>939792.0527806673</v>
       </c>
     </row>
     <row r="6">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>635.6417499565414</v>
+        <v>760.2573537244701</v>
       </c>
       <c r="AB6" t="n">
-        <v>869.7130848254059</v>
+        <v>1040.217651553119</v>
       </c>
       <c r="AC6" t="n">
-        <v>786.7088886596493</v>
+        <v>940.9407388435322</v>
       </c>
       <c r="AD6" t="n">
-        <v>635641.7499565413</v>
+        <v>760257.3537244701</v>
       </c>
       <c r="AE6" t="n">
-        <v>869713.0848254059</v>
+        <v>1040217.651553119</v>
       </c>
       <c r="AF6" t="n">
         <v>7.583032740359298e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>786708.8886596493</v>
+        <v>940940.7388435323</v>
       </c>
     </row>
   </sheetData>
@@ -8215,28 +8215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1740.035442013581</v>
+        <v>1961.942191144908</v>
       </c>
       <c r="AB2" t="n">
-        <v>2380.793256708885</v>
+        <v>2684.415860705206</v>
       </c>
       <c r="AC2" t="n">
-        <v>2153.57368975291</v>
+        <v>2428.218978560824</v>
       </c>
       <c r="AD2" t="n">
-        <v>1740035.442013581</v>
+        <v>1961942.191144908</v>
       </c>
       <c r="AE2" t="n">
-        <v>2380793.256708885</v>
+        <v>2684415.860705206</v>
       </c>
       <c r="AF2" t="n">
         <v>4.035733404770564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.67499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>2153573.68975291</v>
+        <v>2428218.978560824</v>
       </c>
     </row>
     <row r="3">
@@ -8321,28 +8321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>832.3683587555524</v>
+        <v>977.0663844194398</v>
       </c>
       <c r="AB3" t="n">
-        <v>1138.883109949662</v>
+        <v>1336.865332289352</v>
       </c>
       <c r="AC3" t="n">
-        <v>1030.18970436855</v>
+        <v>1209.276781277933</v>
       </c>
       <c r="AD3" t="n">
-        <v>832368.3587555524</v>
+        <v>977066.3844194398</v>
       </c>
       <c r="AE3" t="n">
-        <v>1138883.109949662</v>
+        <v>1336865.332289352</v>
       </c>
       <c r="AF3" t="n">
         <v>6.319687770845646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.89166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1030189.70436855</v>
+        <v>1209276.781277933</v>
       </c>
     </row>
     <row r="4">
@@ -8427,28 +8427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>661.6840387328044</v>
+        <v>787.114048948613</v>
       </c>
       <c r="AB4" t="n">
-        <v>905.3452932337843</v>
+        <v>1076.964166792564</v>
       </c>
       <c r="AC4" t="n">
-        <v>818.9404091076508</v>
+        <v>974.180218242582</v>
       </c>
       <c r="AD4" t="n">
-        <v>661684.0387328045</v>
+        <v>787114.048948613</v>
       </c>
       <c r="AE4" t="n">
-        <v>905345.2932337844</v>
+        <v>1076964.166792564</v>
       </c>
       <c r="AF4" t="n">
         <v>7.156869784267128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.62916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>818940.4091076507</v>
+        <v>974180.2182425819</v>
       </c>
     </row>
     <row r="5">
@@ -8533,28 +8533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>649.6572065379968</v>
+        <v>765.4029719314517</v>
       </c>
       <c r="AB5" t="n">
-        <v>888.8896508384587</v>
+        <v>1047.258113392565</v>
       </c>
       <c r="AC5" t="n">
-        <v>804.0552701268959</v>
+        <v>947.3092688863718</v>
       </c>
       <c r="AD5" t="n">
-        <v>649657.2065379968</v>
+        <v>765402.9719314517</v>
       </c>
       <c r="AE5" t="n">
-        <v>888889.6508384587</v>
+        <v>1047258.113392565</v>
       </c>
       <c r="AF5" t="n">
         <v>7.240630288894443e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.34166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>804055.270126896</v>
+        <v>947309.2688863717</v>
       </c>
     </row>
     <row r="6">
@@ -8639,28 +8639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>651.6004906441694</v>
+        <v>767.3462560376244</v>
       </c>
       <c r="AB6" t="n">
-        <v>891.5485378841684</v>
+        <v>1049.917000438275</v>
       </c>
       <c r="AC6" t="n">
-        <v>806.4603967247343</v>
+        <v>949.7143954842102</v>
       </c>
       <c r="AD6" t="n">
-        <v>651600.4906441694</v>
+        <v>767346.2560376243</v>
       </c>
       <c r="AE6" t="n">
-        <v>891548.5378841683</v>
+        <v>1049917.000438275</v>
       </c>
       <c r="AF6" t="n">
         <v>7.240630288894443e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.34166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>806460.3967247343</v>
+        <v>949714.3954842102</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2770.662578622028</v>
+        <v>3043.920472745137</v>
       </c>
       <c r="AB2" t="n">
-        <v>3790.942773077071</v>
+        <v>4164.826279103799</v>
       </c>
       <c r="AC2" t="n">
-        <v>3429.140515436051</v>
+        <v>3767.34110439637</v>
       </c>
       <c r="AD2" t="n">
-        <v>2770662.578622028</v>
+        <v>3043920.472745136</v>
       </c>
       <c r="AE2" t="n">
-        <v>3790942.773077071</v>
+        <v>4164826.279103799</v>
       </c>
       <c r="AF2" t="n">
         <v>2.895732007024227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3429140.515436051</v>
+        <v>3767341.10439637</v>
       </c>
     </row>
     <row r="3">
@@ -9042,28 +9042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1057.082829991558</v>
+        <v>1213.254024201117</v>
       </c>
       <c r="AB3" t="n">
-        <v>1446.347363197562</v>
+        <v>1660.027680901911</v>
       </c>
       <c r="AC3" t="n">
-        <v>1308.31000081526</v>
+        <v>1501.596968900116</v>
       </c>
       <c r="AD3" t="n">
-        <v>1057082.829991558</v>
+        <v>1213254.024201117</v>
       </c>
       <c r="AE3" t="n">
-        <v>1446347.363197562</v>
+        <v>1660027.680901912</v>
       </c>
       <c r="AF3" t="n">
         <v>5.228469105909878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1308310.00081526</v>
+        <v>1501596.968900116</v>
       </c>
     </row>
     <row r="4">
@@ -9148,28 +9148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>821.3024909053745</v>
+        <v>948.1520257956956</v>
       </c>
       <c r="AB4" t="n">
-        <v>1123.742301365414</v>
+        <v>1297.30343120887</v>
       </c>
       <c r="AC4" t="n">
-        <v>1016.493913305324</v>
+        <v>1173.490612511096</v>
       </c>
       <c r="AD4" t="n">
-        <v>821302.4909053745</v>
+        <v>948152.0257956956</v>
       </c>
       <c r="AE4" t="n">
-        <v>1123742.301365414</v>
+        <v>1297303.43120887</v>
       </c>
       <c r="AF4" t="n">
         <v>6.096035029926698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.28333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1016493.913305324</v>
+        <v>1173490.612511096</v>
       </c>
     </row>
     <row r="5">
@@ -9254,28 +9254,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>710.2674012107958</v>
+        <v>837.0486052635553</v>
       </c>
       <c r="AB5" t="n">
-        <v>971.8191931228547</v>
+        <v>1145.286829699815</v>
       </c>
       <c r="AC5" t="n">
-        <v>879.0701332880128</v>
+        <v>1035.982262093425</v>
       </c>
       <c r="AD5" t="n">
-        <v>710267.4012107959</v>
+        <v>837048.6052635553</v>
       </c>
       <c r="AE5" t="n">
-        <v>971819.1931228547</v>
+        <v>1145286.829699815</v>
       </c>
       <c r="AF5" t="n">
         <v>6.560582741013719e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.425</v>
       </c>
       <c r="AH5" t="n">
-        <v>879070.1332880128</v>
+        <v>1035982.262093425</v>
       </c>
     </row>
     <row r="6">
@@ -9360,28 +9360,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>674.9606673143019</v>
+        <v>801.8091911747658</v>
       </c>
       <c r="AB6" t="n">
-        <v>923.5109621825037</v>
+        <v>1097.070708690306</v>
       </c>
       <c r="AC6" t="n">
-        <v>835.372372107581</v>
+        <v>992.3678200013126</v>
       </c>
       <c r="AD6" t="n">
-        <v>674960.6673143018</v>
+        <v>801809.1911747658</v>
       </c>
       <c r="AE6" t="n">
-        <v>923510.9621825037</v>
+        <v>1097070.708690306</v>
       </c>
       <c r="AF6" t="n">
         <v>6.699408671230949e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.91666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>835372.372107581</v>
+        <v>992367.8200013125</v>
       </c>
     </row>
     <row r="7">
@@ -9466,28 +9466,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>676.5046616768221</v>
+        <v>803.3531855372861</v>
       </c>
       <c r="AB7" t="n">
-        <v>925.6235233855278</v>
+        <v>1099.18326989333</v>
       </c>
       <c r="AC7" t="n">
-        <v>837.2833134343866</v>
+        <v>994.2787613281183</v>
       </c>
       <c r="AD7" t="n">
-        <v>676504.6616768221</v>
+        <v>803353.1855372861</v>
       </c>
       <c r="AE7" t="n">
-        <v>925623.5233855279</v>
+        <v>1099183.26989333</v>
       </c>
       <c r="AF7" t="n">
         <v>6.700177789957914e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.91666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>837283.3134343866</v>
+        <v>994278.7613281183</v>
       </c>
     </row>
     <row r="8">
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>676.9626082431512</v>
+        <v>803.8111321036153</v>
       </c>
       <c r="AB8" t="n">
-        <v>926.250106080756</v>
+        <v>1099.809852588558</v>
       </c>
       <c r="AC8" t="n">
-        <v>837.8500959565968</v>
+        <v>994.8455438503282</v>
       </c>
       <c r="AD8" t="n">
-        <v>676962.6082431512</v>
+        <v>803811.1321036152</v>
       </c>
       <c r="AE8" t="n">
-        <v>926250.1060807561</v>
+        <v>1099809.852588558</v>
       </c>
       <c r="AF8" t="n">
         <v>6.711330011498911e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.875</v>
       </c>
       <c r="AH8" t="n">
-        <v>837850.0959565968</v>
+        <v>994845.5438503282</v>
       </c>
     </row>
   </sheetData>
@@ -9869,28 +9869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1120.555352434522</v>
+        <v>1291.809223013745</v>
       </c>
       <c r="AB2" t="n">
-        <v>1533.193268614086</v>
+        <v>1767.510369528131</v>
       </c>
       <c r="AC2" t="n">
-        <v>1386.867454907824</v>
+        <v>1598.82166057675</v>
       </c>
       <c r="AD2" t="n">
-        <v>1120555.352434522</v>
+        <v>1291809.223013745</v>
       </c>
       <c r="AE2" t="n">
-        <v>1533193.268614086</v>
+        <v>1767510.369528131</v>
       </c>
       <c r="AF2" t="n">
         <v>5.656080507479095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.31666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1386867.454907824</v>
+        <v>1598821.66057675</v>
       </c>
     </row>
     <row r="3">
@@ -9975,28 +9975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>637.0829092485817</v>
+        <v>760.7380698817755</v>
       </c>
       <c r="AB3" t="n">
-        <v>871.6849425482363</v>
+        <v>1040.875388607245</v>
       </c>
       <c r="AC3" t="n">
-        <v>788.4925550489326</v>
+        <v>941.5357023963513</v>
       </c>
       <c r="AD3" t="n">
-        <v>637082.9092485817</v>
+        <v>760738.0698817754</v>
       </c>
       <c r="AE3" t="n">
-        <v>871684.9425482363</v>
+        <v>1040875.388607244</v>
       </c>
       <c r="AF3" t="n">
         <v>7.858490564383567e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.42083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>788492.5550489326</v>
+        <v>941535.7023963514</v>
       </c>
     </row>
     <row r="4">
@@ -10081,28 +10081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>627.0214511073565</v>
+        <v>750.67661174055</v>
       </c>
       <c r="AB4" t="n">
-        <v>857.9184116392061</v>
+        <v>1027.108857698214</v>
       </c>
       <c r="AC4" t="n">
-        <v>776.0398825284127</v>
+        <v>929.0830298758317</v>
       </c>
       <c r="AD4" t="n">
-        <v>627021.4511073565</v>
+        <v>750676.61174055</v>
       </c>
       <c r="AE4" t="n">
-        <v>857918.4116392061</v>
+        <v>1027108.857698214</v>
       </c>
       <c r="AF4" t="n">
         <v>7.95389317677451e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.1125</v>
       </c>
       <c r="AH4" t="n">
-        <v>776039.8825284127</v>
+        <v>929083.0298758317</v>
       </c>
     </row>
     <row r="5">
@@ -10187,28 +10187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>628.9536687744851</v>
+        <v>752.6088294076787</v>
       </c>
       <c r="AB5" t="n">
-        <v>860.5621570947989</v>
+        <v>1029.752603153807</v>
       </c>
       <c r="AC5" t="n">
-        <v>778.4313126282437</v>
+        <v>931.4744599756626</v>
       </c>
       <c r="AD5" t="n">
-        <v>628953.6687744851</v>
+        <v>752608.8294076787</v>
       </c>
       <c r="AE5" t="n">
-        <v>860562.1570947989</v>
+        <v>1029752.603153807</v>
       </c>
       <c r="AF5" t="n">
         <v>7.954372586887026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.1125</v>
       </c>
       <c r="AH5" t="n">
-        <v>778431.3126282437</v>
+        <v>931474.4599756626</v>
       </c>
     </row>
     <row r="6">
@@ -10293,28 +10293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>630.2047763121087</v>
+        <v>744.408525793658</v>
       </c>
       <c r="AB6" t="n">
-        <v>862.2739776227447</v>
+        <v>1018.532585977241</v>
       </c>
       <c r="AC6" t="n">
-        <v>779.9797594075578</v>
+        <v>921.3252654910351</v>
       </c>
       <c r="AD6" t="n">
-        <v>630204.7763121087</v>
+        <v>744408.525793658</v>
       </c>
       <c r="AE6" t="n">
-        <v>862273.9776227447</v>
+        <v>1018532.585977241</v>
       </c>
       <c r="AF6" t="n">
         <v>7.965399019474925e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.07916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>779979.7594075578</v>
+        <v>921325.2654910351</v>
       </c>
     </row>
   </sheetData>
@@ -10590,28 +10590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>783.0113717529314</v>
+        <v>923.9580524749292</v>
       </c>
       <c r="AB2" t="n">
-        <v>1071.350702856088</v>
+        <v>1264.200169548625</v>
       </c>
       <c r="AC2" t="n">
-        <v>969.1024954256578</v>
+        <v>1143.546679682986</v>
       </c>
       <c r="AD2" t="n">
-        <v>783011.3717529314</v>
+        <v>923958.0524749293</v>
       </c>
       <c r="AE2" t="n">
-        <v>1071350.702856089</v>
+        <v>1264200.169548625</v>
       </c>
       <c r="AF2" t="n">
         <v>7.530321641182652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.1625</v>
       </c>
       <c r="AH2" t="n">
-        <v>969102.4954256578</v>
+        <v>1143546.679682986</v>
       </c>
     </row>
     <row r="3">
@@ -10696,28 +10696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>614.9049628367461</v>
+        <v>737.0497768214502</v>
       </c>
       <c r="AB3" t="n">
-        <v>841.3400978456204</v>
+        <v>1008.464020988374</v>
       </c>
       <c r="AC3" t="n">
-        <v>761.0437797354774</v>
+        <v>912.2176302133857</v>
       </c>
       <c r="AD3" t="n">
-        <v>614904.9628367461</v>
+        <v>737049.7768214502</v>
       </c>
       <c r="AE3" t="n">
-        <v>841340.0978456205</v>
+        <v>1008464.020988374</v>
       </c>
       <c r="AF3" t="n">
         <v>8.651093415778824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.25416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>761043.7797354774</v>
+        <v>912217.6302133858</v>
       </c>
     </row>
     <row r="4">
@@ -10802,28 +10802,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>616.197478185169</v>
+        <v>738.3422921698731</v>
       </c>
       <c r="AB4" t="n">
-        <v>843.1085743670855</v>
+        <v>1010.232497509839</v>
       </c>
       <c r="AC4" t="n">
-        <v>762.6434753398062</v>
+        <v>913.8173258177146</v>
       </c>
       <c r="AD4" t="n">
-        <v>616197.4781851689</v>
+        <v>738342.292169873</v>
       </c>
       <c r="AE4" t="n">
-        <v>843108.5743670855</v>
+        <v>1010232.497509839</v>
       </c>
       <c r="AF4" t="n">
         <v>8.663086109864971e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.21666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>762643.4753398062</v>
+        <v>913817.3258177146</v>
       </c>
     </row>
     <row r="5">
@@ -10908,28 +10908,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>617.7714847843084</v>
+        <v>739.9162987690125</v>
       </c>
       <c r="AB5" t="n">
-        <v>845.2621996362985</v>
+        <v>1012.386122779052</v>
       </c>
       <c r="AC5" t="n">
-        <v>764.5915616359575</v>
+        <v>915.7654121138661</v>
       </c>
       <c r="AD5" t="n">
-        <v>617771.4847843085</v>
+        <v>739916.2987690126</v>
       </c>
       <c r="AE5" t="n">
-        <v>845262.1996362986</v>
+        <v>1012386.122779052</v>
       </c>
       <c r="AF5" t="n">
         <v>8.673988559034194e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>764591.5616359576</v>
+        <v>915765.4121138661</v>
       </c>
     </row>
   </sheetData>
@@ -19498,28 +19498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>618.0273242450278</v>
+        <v>757.5485046722506</v>
       </c>
       <c r="AB2" t="n">
-        <v>845.6122504732951</v>
+        <v>1036.511284773887</v>
       </c>
       <c r="AC2" t="n">
-        <v>764.9082041123705</v>
+        <v>937.5881025077913</v>
       </c>
       <c r="AD2" t="n">
-        <v>618027.3242450277</v>
+        <v>757548.5046722506</v>
       </c>
       <c r="AE2" t="n">
-        <v>845612.2504732951</v>
+        <v>1036511.284773887</v>
       </c>
       <c r="AF2" t="n">
         <v>9.154164191799111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.86666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>764908.2041123705</v>
+        <v>937588.1025077912</v>
       </c>
     </row>
     <row r="3">
@@ -19604,28 +19604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>613.6779417557389</v>
+        <v>743.961485602871</v>
       </c>
       <c r="AB3" t="n">
-        <v>839.6612334702369</v>
+        <v>1017.920925866185</v>
       </c>
       <c r="AC3" t="n">
-        <v>759.5251438197793</v>
+        <v>920.7719813625077</v>
       </c>
       <c r="AD3" t="n">
-        <v>613677.9417557388</v>
+        <v>743961.485602871</v>
       </c>
       <c r="AE3" t="n">
-        <v>839661.2334702369</v>
+        <v>1017920.925866185</v>
       </c>
       <c r="AF3" t="n">
         <v>9.236198432533483e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.61666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>759525.1438197793</v>
+        <v>920771.9813625078</v>
       </c>
     </row>
     <row r="4">
@@ -19710,28 +19710,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>616.6270670452896</v>
+        <v>746.9106108924218</v>
       </c>
       <c r="AB4" t="n">
-        <v>843.6963567976255</v>
+        <v>1021.956049193574</v>
       </c>
       <c r="AC4" t="n">
-        <v>763.1751606401333</v>
+        <v>924.4219981828618</v>
       </c>
       <c r="AD4" t="n">
-        <v>616627.0670452896</v>
+        <v>746910.6108924218</v>
       </c>
       <c r="AE4" t="n">
-        <v>843696.3567976255</v>
+        <v>1021956.049193574</v>
       </c>
       <c r="AF4" t="n">
         <v>9.236198432533483e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.61666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>763175.1606401333</v>
+        <v>924421.9981828618</v>
       </c>
     </row>
   </sheetData>
@@ -20007,28 +20007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>677.7627158917819</v>
+        <v>832.662393352509</v>
       </c>
       <c r="AB2" t="n">
-        <v>927.3448486638708</v>
+        <v>1139.285421057109</v>
       </c>
       <c r="AC2" t="n">
-        <v>838.8403578440598</v>
+        <v>1030.553619468549</v>
       </c>
       <c r="AD2" t="n">
-        <v>677762.715891782</v>
+        <v>832662.393352509</v>
       </c>
       <c r="AE2" t="n">
-        <v>927344.8486638708</v>
+        <v>1139285.421057109</v>
       </c>
       <c r="AF2" t="n">
         <v>1.008705900964778e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.44583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>838840.3578440598</v>
+        <v>1030553.619468549</v>
       </c>
     </row>
     <row r="3">
@@ -20113,28 +20113,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>682.8788034448578</v>
+        <v>837.7784809055847</v>
       </c>
       <c r="AB3" t="n">
-        <v>934.3449053598423</v>
+        <v>1146.285477753081</v>
       </c>
       <c r="AC3" t="n">
-        <v>845.1723389536093</v>
+        <v>1036.885600578099</v>
       </c>
       <c r="AD3" t="n">
-        <v>682878.8034448578</v>
+        <v>837778.4809055848</v>
       </c>
       <c r="AE3" t="n">
-        <v>934344.9053598423</v>
+        <v>1146285.477753081</v>
       </c>
       <c r="AF3" t="n">
         <v>1.008705900964778e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.44583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>845172.3389536092</v>
+        <v>1036885.600578098</v>
       </c>
     </row>
   </sheetData>
@@ -20410,28 +20410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1561.824330530722</v>
+        <v>1763.751984340798</v>
       </c>
       <c r="AB2" t="n">
-        <v>2136.956951858679</v>
+        <v>2413.243276220986</v>
       </c>
       <c r="AC2" t="n">
-        <v>1933.008779611205</v>
+        <v>2182.926724946665</v>
       </c>
       <c r="AD2" t="n">
-        <v>1561824.330530722</v>
+        <v>1763751.984340798</v>
       </c>
       <c r="AE2" t="n">
-        <v>2136956.951858679</v>
+        <v>2413243.276220986</v>
       </c>
       <c r="AF2" t="n">
         <v>4.380592917449086e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.37083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1933008.779611205</v>
+        <v>2182926.724946665</v>
       </c>
     </row>
     <row r="3">
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>785.2154596249479</v>
+        <v>919.8000670895034</v>
       </c>
       <c r="AB3" t="n">
-        <v>1074.366433120076</v>
+        <v>1258.511030506917</v>
       </c>
       <c r="AC3" t="n">
-        <v>971.8304086258541</v>
+        <v>1138.400504086661</v>
       </c>
       <c r="AD3" t="n">
-        <v>785215.459624948</v>
+        <v>919800.0670895034</v>
       </c>
       <c r="AE3" t="n">
-        <v>1074366.433120076</v>
+        <v>1258511.030506917</v>
       </c>
       <c r="AF3" t="n">
         <v>6.662885742179039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>971830.4086258542</v>
+        <v>1138400.504086661</v>
       </c>
     </row>
     <row r="4">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>641.8861492467233</v>
+        <v>766.917641326766</v>
       </c>
       <c r="AB4" t="n">
-        <v>878.2569474176871</v>
+        <v>1049.330550881732</v>
       </c>
       <c r="AC4" t="n">
-        <v>794.4373369975095</v>
+        <v>949.1839158502568</v>
       </c>
       <c r="AD4" t="n">
-        <v>641886.1492467234</v>
+        <v>766917.641326766</v>
       </c>
       <c r="AE4" t="n">
-        <v>878256.9474176872</v>
+        <v>1049330.550881732</v>
       </c>
       <c r="AF4" t="n">
         <v>7.387982395280779e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.52916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>794437.3369975096</v>
+        <v>949183.9158502568</v>
       </c>
     </row>
     <row r="5">
@@ -20728,28 +20728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>642.2497435470383</v>
+        <v>767.1797504005958</v>
       </c>
       <c r="AB5" t="n">
-        <v>878.7544331800262</v>
+        <v>1049.689180079982</v>
       </c>
       <c r="AC5" t="n">
-        <v>794.8873434169168</v>
+        <v>949.5083179811652</v>
       </c>
       <c r="AD5" t="n">
-        <v>642249.7435470383</v>
+        <v>767179.7504005958</v>
       </c>
       <c r="AE5" t="n">
-        <v>878754.4331800262</v>
+        <v>1049689.180079982</v>
       </c>
       <c r="AF5" t="n">
         <v>7.398421699224656e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.49583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>794887.3434169168</v>
+        <v>949508.3179811651</v>
       </c>
     </row>
     <row r="6">
@@ -20834,28 +20834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>642.8926258770944</v>
+        <v>767.8226327306518</v>
       </c>
       <c r="AB6" t="n">
-        <v>879.6340531459756</v>
+        <v>1050.568800045932</v>
       </c>
       <c r="AC6" t="n">
-        <v>795.6830136878704</v>
+        <v>950.3039882521184</v>
       </c>
       <c r="AD6" t="n">
-        <v>642892.6258770943</v>
+        <v>767822.6327306518</v>
       </c>
       <c r="AE6" t="n">
-        <v>879634.0531459756</v>
+        <v>1050568.800045931</v>
       </c>
       <c r="AF6" t="n">
         <v>7.409730945163855e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.45833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>795683.0136878703</v>
+        <v>950303.9882521185</v>
       </c>
     </row>
   </sheetData>
@@ -21131,28 +21131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2447.210599751503</v>
+        <v>2710.02314632386</v>
       </c>
       <c r="AB2" t="n">
-        <v>3348.38150589219</v>
+        <v>3707.973226583768</v>
       </c>
       <c r="AC2" t="n">
-        <v>3028.816674452672</v>
+        <v>3354.089466011581</v>
       </c>
       <c r="AD2" t="n">
-        <v>2447210.599751503</v>
+        <v>2710023.14632386</v>
       </c>
       <c r="AE2" t="n">
-        <v>3348381.505892191</v>
+        <v>3707973.226583768</v>
       </c>
       <c r="AF2" t="n">
         <v>3.152560498390899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.95000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>3028816.674452673</v>
+        <v>3354089.466011581</v>
       </c>
     </row>
     <row r="3">
@@ -21237,28 +21237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>994.8664473099363</v>
+        <v>1150.579377159734</v>
       </c>
       <c r="AB3" t="n">
-        <v>1361.220163619481</v>
+        <v>1574.273463809609</v>
       </c>
       <c r="AC3" t="n">
-        <v>1231.307221688136</v>
+        <v>1424.027013930302</v>
       </c>
       <c r="AD3" t="n">
-        <v>994866.4473099364</v>
+        <v>1150579.377159734</v>
       </c>
       <c r="AE3" t="n">
-        <v>1361220.163619481</v>
+        <v>1574273.463809608</v>
       </c>
       <c r="AF3" t="n">
         <v>5.475810106418402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.90833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1231307.221688136</v>
+        <v>1424027.013930303</v>
       </c>
     </row>
     <row r="4">
@@ -21343,28 +21343,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>775.8253666460337</v>
+        <v>912.0656389099111</v>
       </c>
       <c r="AB4" t="n">
-        <v>1061.51849364466</v>
+        <v>1247.92844465271</v>
       </c>
       <c r="AC4" t="n">
-        <v>960.2086584617759</v>
+        <v>1128.827905373627</v>
       </c>
       <c r="AD4" t="n">
-        <v>775825.3666460337</v>
+        <v>912065.638909911</v>
       </c>
       <c r="AE4" t="n">
-        <v>1061518.49364466</v>
+        <v>1247928.44465271</v>
       </c>
       <c r="AF4" t="n">
         <v>6.334598872031682e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.85</v>
       </c>
       <c r="AH4" t="n">
-        <v>960208.658461776</v>
+        <v>1128827.905373627</v>
       </c>
     </row>
     <row r="5">
@@ -21449,28 +21449,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>682.3024320240347</v>
+        <v>799.0710577318492</v>
       </c>
       <c r="AB5" t="n">
-        <v>933.5562885541597</v>
+        <v>1093.324273715785</v>
       </c>
       <c r="AC5" t="n">
-        <v>844.4589866290302</v>
+        <v>988.9789395226059</v>
       </c>
       <c r="AD5" t="n">
-        <v>682302.4320240347</v>
+        <v>799071.0577318493</v>
       </c>
       <c r="AE5" t="n">
-        <v>933556.2885541597</v>
+        <v>1093324.273715785</v>
       </c>
       <c r="AF5" t="n">
         <v>6.774408770759947e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.175</v>
       </c>
       <c r="AH5" t="n">
-        <v>844458.9866290302</v>
+        <v>988978.9395226059</v>
       </c>
     </row>
     <row r="6">
@@ -21555,28 +21555,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>678.3849556075393</v>
+        <v>795.1535813153539</v>
       </c>
       <c r="AB6" t="n">
-        <v>928.1962244942488</v>
+        <v>1087.964209655874</v>
       </c>
       <c r="AC6" t="n">
-        <v>839.6104795601</v>
+        <v>984.1304324536757</v>
       </c>
       <c r="AD6" t="n">
-        <v>678384.9556075393</v>
+        <v>795153.5813153539</v>
       </c>
       <c r="AE6" t="n">
-        <v>928196.2244942487</v>
+        <v>1087964.209655874</v>
       </c>
       <c r="AF6" t="n">
         <v>6.806244876029822e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>839610.4795601</v>
+        <v>984130.4324536757</v>
       </c>
     </row>
     <row r="7">
@@ -21661,28 +21661,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>678.9175984599138</v>
+        <v>795.6862241677286</v>
       </c>
       <c r="AB7" t="n">
-        <v>928.925009943412</v>
+        <v>1088.692995105038</v>
       </c>
       <c r="AC7" t="n">
-        <v>840.2697107488518</v>
+        <v>984.7896636424276</v>
       </c>
       <c r="AD7" t="n">
-        <v>678917.5984599139</v>
+        <v>795686.2241677286</v>
       </c>
       <c r="AE7" t="n">
-        <v>928925.0099434119</v>
+        <v>1088692.995105038</v>
       </c>
       <c r="AF7" t="n">
         <v>6.81764298779311e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.02083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>840269.7107488518</v>
+        <v>984789.6636424277</v>
       </c>
     </row>
   </sheetData>
@@ -21958,28 +21958,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>765.4339197311941</v>
+        <v>954.9886454061126</v>
       </c>
       <c r="AB2" t="n">
-        <v>1047.300457537493</v>
+        <v>1306.657595770213</v>
       </c>
       <c r="AC2" t="n">
-        <v>947.3475717655383</v>
+        <v>1181.952028735357</v>
       </c>
       <c r="AD2" t="n">
-        <v>765433.9197311942</v>
+        <v>954988.6454061125</v>
       </c>
       <c r="AE2" t="n">
-        <v>1047300.457537493</v>
+        <v>1306657.595770213</v>
       </c>
       <c r="AF2" t="n">
         <v>9.986583079491966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.7875</v>
       </c>
       <c r="AH2" t="n">
-        <v>947347.5717655383</v>
+        <v>1181952.028735357</v>
       </c>
     </row>
   </sheetData>
@@ -22255,28 +22255,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>882.3575783812395</v>
+        <v>1042.822081172425</v>
       </c>
       <c r="AB2" t="n">
-        <v>1207.28056561025</v>
+        <v>1426.835177523388</v>
       </c>
       <c r="AC2" t="n">
-        <v>1092.059402857323</v>
+        <v>1290.660030756304</v>
       </c>
       <c r="AD2" t="n">
-        <v>882357.5783812394</v>
+        <v>1042822.081172425</v>
       </c>
       <c r="AE2" t="n">
-        <v>1207280.56561025</v>
+        <v>1426835.177523389</v>
       </c>
       <c r="AF2" t="n">
         <v>6.806125478402152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.82083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1092059.402857323</v>
+        <v>1290660.030756305</v>
       </c>
     </row>
     <row r="3">
@@ -22361,28 +22361,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>611.9090375918643</v>
+        <v>744.044216801506</v>
       </c>
       <c r="AB3" t="n">
-        <v>837.2409407546795</v>
+        <v>1018.034122342</v>
       </c>
       <c r="AC3" t="n">
-        <v>757.3358404440928</v>
+        <v>920.8743745255435</v>
       </c>
       <c r="AD3" t="n">
-        <v>611909.0375918642</v>
+        <v>744044.216801506</v>
       </c>
       <c r="AE3" t="n">
-        <v>837240.9407546795</v>
+        <v>1018034.122342</v>
       </c>
       <c r="AF3" t="n">
         <v>8.392644607714256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.80833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>757335.8404440928</v>
+        <v>920874.3745255435</v>
       </c>
     </row>
     <row r="4">
@@ -22467,28 +22467,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>613.0815952082573</v>
+        <v>745.216774417899</v>
       </c>
       <c r="AB4" t="n">
-        <v>838.8452858150199</v>
+        <v>1019.638467402341</v>
       </c>
       <c r="AC4" t="n">
-        <v>758.7870690635865</v>
+        <v>922.3256031450373</v>
       </c>
       <c r="AD4" t="n">
-        <v>613081.5952082573</v>
+        <v>745216.7744178991</v>
       </c>
       <c r="AE4" t="n">
-        <v>838845.2858150199</v>
+        <v>1019638.467402341</v>
       </c>
       <c r="AF4" t="n">
         <v>8.404600682410907e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.77083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>758787.0690635865</v>
+        <v>922325.6031450373</v>
       </c>
     </row>
     <row r="5">
@@ -22573,28 +22573,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>614.3543675467314</v>
+        <v>737.1147697334202</v>
       </c>
       <c r="AB5" t="n">
-        <v>840.5867490792726</v>
+        <v>1008.552947157816</v>
       </c>
       <c r="AC5" t="n">
-        <v>760.3623295180581</v>
+        <v>912.2980693940251</v>
       </c>
       <c r="AD5" t="n">
-        <v>614354.3675467314</v>
+        <v>737114.7697334202</v>
       </c>
       <c r="AE5" t="n">
-        <v>840586.7490792726</v>
+        <v>1008552.947157816</v>
       </c>
       <c r="AF5" t="n">
         <v>8.416036927772919e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.7375</v>
       </c>
       <c r="AH5" t="n">
-        <v>760362.3295180581</v>
+        <v>912298.0693940251</v>
       </c>
     </row>
   </sheetData>
@@ -22870,28 +22870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1254.530838359501</v>
+        <v>1435.973364166337</v>
       </c>
       <c r="AB2" t="n">
-        <v>1716.504439037934</v>
+        <v>1964.762107526144</v>
       </c>
       <c r="AC2" t="n">
-        <v>1552.683664505263</v>
+        <v>1777.247969544785</v>
       </c>
       <c r="AD2" t="n">
-        <v>1254530.838359501</v>
+        <v>1435973.364166337</v>
       </c>
       <c r="AE2" t="n">
-        <v>1716504.439037934</v>
+        <v>1964762.107526144</v>
       </c>
       <c r="AF2" t="n">
         <v>5.182820551843573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.2125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1552683.664505263</v>
+        <v>1777247.969544785</v>
       </c>
     </row>
     <row r="3">
@@ -22976,28 +22976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>675.7442446488014</v>
+        <v>809.4451850989506</v>
       </c>
       <c r="AB3" t="n">
-        <v>924.5830872605583</v>
+        <v>1107.518612453652</v>
       </c>
       <c r="AC3" t="n">
-        <v>836.3421750729229</v>
+        <v>1001.81859049321</v>
       </c>
       <c r="AD3" t="n">
-        <v>675744.2446488014</v>
+        <v>809445.1850989505</v>
       </c>
       <c r="AE3" t="n">
-        <v>924583.0872605583</v>
+        <v>1107518.612453652</v>
       </c>
       <c r="AF3" t="n">
         <v>7.443968930494628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.90833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>836342.175072923</v>
+        <v>1001818.59049321</v>
       </c>
     </row>
     <row r="4">
@@ -23082,28 +23082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>625.4073412403063</v>
+        <v>749.5874991601139</v>
       </c>
       <c r="AB4" t="n">
-        <v>855.7099153096065</v>
+        <v>1025.618685817406</v>
       </c>
       <c r="AC4" t="n">
-        <v>774.042161988866</v>
+        <v>927.735077907858</v>
       </c>
       <c r="AD4" t="n">
-        <v>625407.3412403063</v>
+        <v>749587.4991601139</v>
       </c>
       <c r="AE4" t="n">
-        <v>855709.9153096065</v>
+        <v>1025618.685817406</v>
       </c>
       <c r="AF4" t="n">
         <v>7.751318474696123e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.88333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>774042.161988866</v>
+        <v>927735.077907858</v>
       </c>
     </row>
     <row r="5">
@@ -23188,28 +23188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>627.3653652153437</v>
+        <v>751.5455231351513</v>
       </c>
       <c r="AB5" t="n">
-        <v>858.3889700941739</v>
+        <v>1028.297740601973</v>
       </c>
       <c r="AC5" t="n">
-        <v>776.4655315448714</v>
+        <v>930.1584474638632</v>
       </c>
       <c r="AD5" t="n">
-        <v>627365.3652153437</v>
+        <v>751545.5231351512</v>
       </c>
       <c r="AE5" t="n">
-        <v>858388.9700941739</v>
+        <v>1028297.740601973</v>
       </c>
       <c r="AF5" t="n">
         <v>7.751781350515704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.87916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>776465.5315448714</v>
+        <v>930158.4474638633</v>
       </c>
     </row>
     <row r="6">
@@ -23294,28 +23294,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>628.3973062530471</v>
+        <v>752.5774641728547</v>
       </c>
       <c r="AB6" t="n">
-        <v>859.8009173479852</v>
+        <v>1029.709687855784</v>
       </c>
       <c r="AC6" t="n">
-        <v>777.7427245344592</v>
+        <v>931.4356404534514</v>
       </c>
       <c r="AD6" t="n">
-        <v>628397.3062530471</v>
+        <v>752577.4641728547</v>
       </c>
       <c r="AE6" t="n">
-        <v>859800.9173479852</v>
+        <v>1029709.687855784</v>
       </c>
       <c r="AF6" t="n">
         <v>7.762890370185637e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.84583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>777742.7245344592</v>
+        <v>931435.6404534513</v>
       </c>
     </row>
   </sheetData>
